--- a/p5/pcba/SCMplus-bom.xlsx
+++ b/p5/pcba/SCMplus-bom.xlsx
@@ -3349,7 +3349,9 @@
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
+      <c r="K45" t="s" s="14">
+        <v>131</v>
+      </c>
     </row>
     <row r="46" ht="20.7" customHeight="1">
       <c r="A46" s="20">
